--- a/data_in/data_raw_manually_extracted/human_entered/S_165.xlsx
+++ b/data_in/data_raw_manually_extracted/human_entered/S_165.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pixie/Desktop/Data meeting/Data collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef.sharepoint.com/teams/CHE-MarketData-DataIngest/Shared Documents/Data Ingest/CRB Atlas/data_raw_manually_extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6D176BF2-995E-8F4E-98EF-E5F5AC54D3E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D92131FB-96D7-4FBC-AD41-770D61DCC044}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{6D176BF2-995E-8F4E-98EF-E5F5AC54D3E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA353D93-EB74-4789-B856-7065C8AB7A21}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blueprint" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blueprint!$A$1:$AJ$196</definedName>
     <definedName name="Options_2.3Sb">[1]CRCE!$DQ$212:$DQ$219</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="578">
   <si>
     <t>COUNTRY_ISO_3</t>
   </si>
@@ -1769,6 +1770,18 @@
   </si>
   <si>
     <t>4 = fully addressed; 3 = significant progress; 2 = limited progress; 1 = do not address; 0 = no data</t>
+  </si>
+  <si>
+    <t>Countries where laws do not address indigenous land tenure</t>
+  </si>
+  <si>
+    <t>Countries where national laws fully address indigenous land tenure</t>
+  </si>
+  <si>
+    <t>Countries with national laws that make significant progress toward addressing indigenous land tenure</t>
+  </si>
+  <si>
+    <t>Countries with national laws that reflect limited progress in addressing indigenous land tenure</t>
   </si>
 </sst>
 </file>
@@ -2381,39 +2394,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ196"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="S194" sqref="S194"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" customWidth="1"/>
-    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.88671875" customWidth="1"/>
+    <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1">
@@ -2521,7 +2535,7 @@
       </c>
       <c r="AJ1" s="5"/>
     </row>
-    <row r="2" spans="1:36" ht="15.95">
+    <row r="2" spans="1:36" ht="15.6" hidden="1">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -2572,7 +2586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15.95">
+    <row r="3" spans="1:36" ht="15.6" hidden="1">
       <c r="A3" s="7" t="s">
         <v>39</v>
       </c>
@@ -2591,7 +2605,7 @@
       </c>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:36" ht="15.95">
+    <row r="4" spans="1:36" ht="15.6" hidden="1">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -2609,7 +2623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.95">
+    <row r="5" spans="1:36" ht="15.6">
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
@@ -2620,14 +2634,14 @@
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.95">
+    <row r="6" spans="1:36" ht="15.6">
       <c r="A6" s="7" t="s">
         <v>46</v>
       </c>
@@ -2638,14 +2652,14 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.95">
+    <row r="7" spans="1:36" ht="15.6" hidden="1">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -2663,7 +2677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.95">
+    <row r="8" spans="1:36" ht="15.6">
       <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
@@ -2674,14 +2688,14 @@
         <v>2019</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.95">
+    <row r="9" spans="1:36" ht="15.6" hidden="1">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -2699,7 +2713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.95">
+    <row r="10" spans="1:36" ht="15.6" hidden="1">
       <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
@@ -2710,14 +2724,14 @@
         <v>2019</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.95">
+    <row r="11" spans="1:36" ht="15.6" hidden="1">
       <c r="A11" s="7" t="s">
         <v>57</v>
       </c>
@@ -2735,7 +2749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.95">
+    <row r="12" spans="1:36" ht="15.6" hidden="1">
       <c r="A12" s="7" t="s">
         <v>59</v>
       </c>
@@ -2753,7 +2767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15.95">
+    <row r="13" spans="1:36" ht="15.6" hidden="1">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
@@ -2771,7 +2785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.95">
+    <row r="14" spans="1:36" ht="15.6" hidden="1">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
@@ -2789,7 +2803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.95">
+    <row r="15" spans="1:36" ht="15.6" hidden="1">
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
@@ -2800,14 +2814,14 @@
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.95">
+    <row r="16" spans="1:36" ht="15.6" hidden="1">
       <c r="A16" s="7" t="s">
         <v>68</v>
       </c>
@@ -2825,7 +2839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.95">
+    <row r="17" spans="1:20" ht="15.6" hidden="1">
       <c r="A17" s="7" t="s">
         <v>70</v>
       </c>
@@ -2843,7 +2857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.95">
+    <row r="18" spans="1:20" ht="15.6" hidden="1">
       <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
@@ -2861,7 +2875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.95">
+    <row r="19" spans="1:20" ht="15.6" hidden="1">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
@@ -2872,14 +2886,14 @@
         <v>2019</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S19" s="6"/>
       <c r="T19" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.95">
+    <row r="20" spans="1:20" ht="15.6" hidden="1">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -2897,7 +2911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.95">
+    <row r="21" spans="1:20" ht="15.6" hidden="1">
       <c r="A21" s="7" t="s">
         <v>78</v>
       </c>
@@ -2915,7 +2929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.95">
+    <row r="22" spans="1:20" ht="15.6" hidden="1">
       <c r="A22" s="7" t="s">
         <v>80</v>
       </c>
@@ -2926,14 +2940,14 @@
         <v>2019</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.95">
+    <row r="23" spans="1:20" ht="15.6" hidden="1">
       <c r="A23" s="7" t="s">
         <v>83</v>
       </c>
@@ -2951,7 +2965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.95">
+    <row r="24" spans="1:20" ht="15.6" hidden="1">
       <c r="A24" s="7" t="s">
         <v>85</v>
       </c>
@@ -2962,14 +2976,14 @@
         <v>2019</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.95">
+    <row r="25" spans="1:20" ht="15.6" hidden="1">
       <c r="A25" s="7" t="s">
         <v>87</v>
       </c>
@@ -2980,14 +2994,14 @@
         <v>2019</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.95">
+    <row r="26" spans="1:20" ht="15.6" hidden="1">
       <c r="A26" s="7" t="s">
         <v>89</v>
       </c>
@@ -3005,7 +3019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.95">
+    <row r="27" spans="1:20" ht="15.6" hidden="1">
       <c r="A27" s="7" t="s">
         <v>91</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.95">
+    <row r="28" spans="1:20" ht="15.6" hidden="1">
       <c r="A28" s="7" t="s">
         <v>93</v>
       </c>
@@ -3034,14 +3048,14 @@
         <v>2019</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.95">
+    <row r="29" spans="1:20" ht="15.6" hidden="1">
       <c r="A29" s="7" t="s">
         <v>95</v>
       </c>
@@ -3059,7 +3073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.95">
+    <row r="30" spans="1:20" ht="15.6" hidden="1">
       <c r="A30" s="7" t="s">
         <v>97</v>
       </c>
@@ -3077,7 +3091,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.95">
+    <row r="31" spans="1:20" ht="15.6" hidden="1">
       <c r="A31" s="7" t="s">
         <v>99</v>
       </c>
@@ -3088,14 +3102,14 @@
         <v>2019</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.95">
+    <row r="32" spans="1:20" ht="15.6" hidden="1">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -3113,7 +3127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.95">
+    <row r="33" spans="1:20" ht="15.6" hidden="1">
       <c r="A33" s="7" t="s">
         <v>103</v>
       </c>
@@ -3124,14 +3138,14 @@
         <v>2019</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.95">
+    <row r="34" spans="1:20" ht="15.6" hidden="1">
       <c r="A34" s="7" t="s">
         <v>105</v>
       </c>
@@ -3149,7 +3163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.95">
+    <row r="35" spans="1:20" ht="15.6" hidden="1">
       <c r="A35" s="7" t="s">
         <v>107</v>
       </c>
@@ -3160,14 +3174,14 @@
         <v>2019</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.95">
+    <row r="36" spans="1:20" ht="15.6" hidden="1">
       <c r="A36" s="7" t="s">
         <v>109</v>
       </c>
@@ -3178,14 +3192,14 @@
         <v>2019</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.95">
+    <row r="37" spans="1:20" ht="15.6" hidden="1">
       <c r="A37" s="7" t="s">
         <v>111</v>
       </c>
@@ -3196,14 +3210,14 @@
         <v>2019</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.95">
+    <row r="38" spans="1:20" ht="15.6" hidden="1">
       <c r="A38" s="7" t="s">
         <v>113</v>
       </c>
@@ -3214,14 +3228,14 @@
         <v>2019</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S38" s="6"/>
       <c r="T38" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.95">
+    <row r="39" spans="1:20" ht="15.6" hidden="1">
       <c r="A39" s="7" t="s">
         <v>115</v>
       </c>
@@ -3239,7 +3253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.95">
+    <row r="40" spans="1:20" ht="15.6" hidden="1">
       <c r="A40" s="7" t="s">
         <v>117</v>
       </c>
@@ -3257,7 +3271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.95">
+    <row r="41" spans="1:20" ht="15.6" hidden="1">
       <c r="A41" s="7" t="s">
         <v>119</v>
       </c>
@@ -3275,7 +3289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.95">
+    <row r="42" spans="1:20" ht="15.6" hidden="1">
       <c r="A42" s="7" t="s">
         <v>121</v>
       </c>
@@ -3286,14 +3300,14 @@
         <v>2019</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S42" s="6"/>
       <c r="T42" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.95">
+    <row r="43" spans="1:20" ht="15.6">
       <c r="A43" s="7" t="s">
         <v>123</v>
       </c>
@@ -3304,14 +3318,14 @@
         <v>2019</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.95">
+    <row r="44" spans="1:20" ht="15.6" hidden="1">
       <c r="A44" s="7" t="s">
         <v>125</v>
       </c>
@@ -3329,7 +3343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.95">
+    <row r="45" spans="1:20" ht="15.6" hidden="1">
       <c r="A45" s="7" t="s">
         <v>127</v>
       </c>
@@ -3340,14 +3354,14 @@
         <v>2019</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S45" s="6"/>
       <c r="T45" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.95">
+    <row r="46" spans="1:20" ht="15.6" hidden="1">
       <c r="A46" s="7" t="s">
         <v>129</v>
       </c>
@@ -3365,7 +3379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.95">
+    <row r="47" spans="1:20" ht="15.6" hidden="1">
       <c r="A47" s="7" t="s">
         <v>131</v>
       </c>
@@ -3383,7 +3397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.95">
+    <row r="48" spans="1:20" ht="15.6" hidden="1">
       <c r="A48" s="7" t="s">
         <v>133</v>
       </c>
@@ -3401,7 +3415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.95">
+    <row r="49" spans="1:20" ht="15.6" hidden="1">
       <c r="A49" s="7" t="s">
         <v>135</v>
       </c>
@@ -3419,7 +3433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.95">
+    <row r="50" spans="1:20" ht="15.6" hidden="1">
       <c r="A50" s="7" t="s">
         <v>137</v>
       </c>
@@ -3437,7 +3451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.95">
+    <row r="51" spans="1:20" ht="15.6" hidden="1">
       <c r="A51" s="7" t="s">
         <v>139</v>
       </c>
@@ -3455,7 +3469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.95">
+    <row r="52" spans="1:20" ht="15.6" hidden="1">
       <c r="A52" s="7" t="s">
         <v>141</v>
       </c>
@@ -3466,14 +3480,14 @@
         <v>2019</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.95">
+    <row r="53" spans="1:20" ht="15.6" hidden="1">
       <c r="A53" s="7" t="s">
         <v>143</v>
       </c>
@@ -3491,7 +3505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.95">
+    <row r="54" spans="1:20" ht="15.6" hidden="1">
       <c r="A54" s="7" t="s">
         <v>145</v>
       </c>
@@ -3509,7 +3523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.95">
+    <row r="55" spans="1:20" ht="15.6" hidden="1">
       <c r="A55" s="7" t="s">
         <v>147</v>
       </c>
@@ -3527,7 +3541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.95">
+    <row r="56" spans="1:20" ht="15.6" hidden="1">
       <c r="A56" s="7" t="s">
         <v>149</v>
       </c>
@@ -3538,14 +3552,14 @@
         <v>2019</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S56" s="6"/>
       <c r="T56" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.95">
+    <row r="57" spans="1:20" ht="15.6" hidden="1">
       <c r="A57" s="7" t="s">
         <v>151</v>
       </c>
@@ -3563,7 +3577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.95">
+    <row r="58" spans="1:20" ht="15.6" hidden="1">
       <c r="A58" s="7" t="s">
         <v>153</v>
       </c>
@@ -3574,14 +3588,14 @@
         <v>2019</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S58" s="6"/>
       <c r="T58" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.95">
+    <row r="59" spans="1:20" ht="15.6">
       <c r="A59" s="7" t="s">
         <v>155</v>
       </c>
@@ -3592,14 +3606,14 @@
         <v>2019</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S59" s="6"/>
       <c r="T59" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15.95">
+    <row r="60" spans="1:20" ht="15.6" hidden="1">
       <c r="A60" s="7" t="s">
         <v>157</v>
       </c>
@@ -3617,7 +3631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.95">
+    <row r="61" spans="1:20" ht="15.6" hidden="1">
       <c r="A61" s="7" t="s">
         <v>159</v>
       </c>
@@ -3628,14 +3642,14 @@
         <v>2019</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S61" s="6"/>
       <c r="T61" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.95">
+    <row r="62" spans="1:20" ht="15.6" hidden="1">
       <c r="A62" s="7" t="s">
         <v>161</v>
       </c>
@@ -3653,7 +3667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.95">
+    <row r="63" spans="1:20" ht="15.6" hidden="1">
       <c r="A63" s="7" t="s">
         <v>163</v>
       </c>
@@ -3664,14 +3678,14 @@
         <v>2019</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S63" s="6"/>
       <c r="T63" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.95">
+    <row r="64" spans="1:20" ht="15.6" hidden="1">
       <c r="A64" s="7" t="s">
         <v>165</v>
       </c>
@@ -3682,14 +3696,14 @@
         <v>2019</v>
       </c>
       <c r="E64" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S64" s="6"/>
       <c r="T64" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.95">
+    <row r="65" spans="1:20" ht="15.6" hidden="1">
       <c r="A65" s="7" t="s">
         <v>167</v>
       </c>
@@ -3707,7 +3721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.95">
+    <row r="66" spans="1:20" ht="15.6" hidden="1">
       <c r="A66" s="7" t="s">
         <v>169</v>
       </c>
@@ -3725,7 +3739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15.95">
+    <row r="67" spans="1:20" ht="15.6" hidden="1">
       <c r="A67" s="7" t="s">
         <v>171</v>
       </c>
@@ -3736,14 +3750,14 @@
         <v>2019</v>
       </c>
       <c r="E67" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S67" s="6"/>
       <c r="T67" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.95">
+    <row r="68" spans="1:20" ht="15.6" hidden="1">
       <c r="A68" s="7" t="s">
         <v>173</v>
       </c>
@@ -3761,7 +3775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.95">
+    <row r="69" spans="1:20" ht="15.6" hidden="1">
       <c r="A69" s="7" t="s">
         <v>175</v>
       </c>
@@ -3779,7 +3793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.95">
+    <row r="70" spans="1:20" ht="15.6" hidden="1">
       <c r="A70" s="7" t="s">
         <v>177</v>
       </c>
@@ -3797,7 +3811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.95">
+    <row r="71" spans="1:20" ht="15.6" hidden="1">
       <c r="A71" s="7" t="s">
         <v>179</v>
       </c>
@@ -3815,7 +3829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.95">
+    <row r="72" spans="1:20" ht="15.6" hidden="1">
       <c r="A72" s="7" t="s">
         <v>181</v>
       </c>
@@ -3833,7 +3847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.95">
+    <row r="73" spans="1:20" ht="15.6" hidden="1">
       <c r="A73" s="7" t="s">
         <v>183</v>
       </c>
@@ -3844,14 +3858,14 @@
         <v>2019</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S73" s="6"/>
       <c r="T73" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.95">
+    <row r="74" spans="1:20" ht="15.6" hidden="1">
       <c r="A74" s="7" t="s">
         <v>185</v>
       </c>
@@ -3869,7 +3883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.95">
+    <row r="75" spans="1:20" ht="15.6" hidden="1">
       <c r="A75" s="7" t="s">
         <v>187</v>
       </c>
@@ -3880,14 +3894,14 @@
         <v>2019</v>
       </c>
       <c r="E75" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S75" s="6"/>
       <c r="T75" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.95">
+    <row r="76" spans="1:20" ht="15.6" hidden="1">
       <c r="A76" s="7" t="s">
         <v>189</v>
       </c>
@@ -3905,7 +3919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.95">
+    <row r="77" spans="1:20" ht="15.6" hidden="1">
       <c r="A77" s="7" t="s">
         <v>191</v>
       </c>
@@ -3916,14 +3930,14 @@
         <v>2019</v>
       </c>
       <c r="E77" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S77" s="6"/>
       <c r="T77" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.95">
+    <row r="78" spans="1:20" ht="15.6" hidden="1">
       <c r="A78" s="7" t="s">
         <v>193</v>
       </c>
@@ -3934,14 +3948,14 @@
         <v>2019</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S78" s="6"/>
       <c r="T78" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.95">
+    <row r="79" spans="1:20" ht="15.6">
       <c r="A79" s="7" t="s">
         <v>195</v>
       </c>
@@ -3952,14 +3966,14 @@
         <v>2019</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S79" s="6"/>
       <c r="T79" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15.95">
+    <row r="80" spans="1:20" ht="15.6" hidden="1">
       <c r="A80" s="7" t="s">
         <v>197</v>
       </c>
@@ -3977,7 +3991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15.95">
+    <row r="81" spans="1:20" ht="15.6" hidden="1">
       <c r="A81" s="7" t="s">
         <v>199</v>
       </c>
@@ -3988,14 +4002,14 @@
         <v>2019</v>
       </c>
       <c r="E81" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S81" s="6"/>
       <c r="T81" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15.95">
+    <row r="82" spans="1:20" ht="15.6" hidden="1">
       <c r="A82" s="7" t="s">
         <v>201</v>
       </c>
@@ -4013,7 +4027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15.95">
+    <row r="83" spans="1:20" ht="15.6" hidden="1">
       <c r="A83" s="7" t="s">
         <v>203</v>
       </c>
@@ -4031,7 +4045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15.95">
+    <row r="84" spans="1:20" ht="15.6" hidden="1">
       <c r="A84" s="7" t="s">
         <v>205</v>
       </c>
@@ -4049,7 +4063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15.95">
+    <row r="85" spans="1:20" ht="15.6" hidden="1">
       <c r="A85" s="7" t="s">
         <v>207</v>
       </c>
@@ -4067,7 +4081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15.95">
+    <row r="86" spans="1:20" ht="15.6" hidden="1">
       <c r="A86" s="7" t="s">
         <v>209</v>
       </c>
@@ -4085,7 +4099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15.95">
+    <row r="87" spans="1:20" ht="15.6" hidden="1">
       <c r="A87" s="7" t="s">
         <v>211</v>
       </c>
@@ -4096,14 +4110,14 @@
         <v>2019</v>
       </c>
       <c r="E87" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15.95">
+    <row r="88" spans="1:20" ht="15.6" hidden="1">
       <c r="A88" s="7" t="s">
         <v>213</v>
       </c>
@@ -4121,7 +4135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15.95">
+    <row r="89" spans="1:20" ht="15.6" hidden="1">
       <c r="A89" s="7" t="s">
         <v>215</v>
       </c>
@@ -4132,14 +4146,14 @@
         <v>2019</v>
       </c>
       <c r="E89" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S89" s="6"/>
       <c r="T89" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.95">
+    <row r="90" spans="1:20" ht="15.6" hidden="1">
       <c r="A90" s="7" t="s">
         <v>217</v>
       </c>
@@ -4157,7 +4171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.95">
+    <row r="91" spans="1:20" ht="15.6" hidden="1">
       <c r="A91" s="7" t="s">
         <v>219</v>
       </c>
@@ -4175,7 +4189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15.95">
+    <row r="92" spans="1:20" ht="15.6" hidden="1">
       <c r="A92" s="7" t="s">
         <v>221</v>
       </c>
@@ -4193,7 +4207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15.95">
+    <row r="93" spans="1:20" ht="15.6" hidden="1">
       <c r="A93" s="7" t="s">
         <v>223</v>
       </c>
@@ -4211,7 +4225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.95">
+    <row r="94" spans="1:20" ht="15.6" hidden="1">
       <c r="A94" s="7" t="s">
         <v>225</v>
       </c>
@@ -4229,7 +4243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.95">
+    <row r="95" spans="1:20" ht="15.6" hidden="1">
       <c r="A95" s="7" t="s">
         <v>227</v>
       </c>
@@ -4247,7 +4261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15.95">
+    <row r="96" spans="1:20" ht="15.6">
       <c r="A96" s="7" t="s">
         <v>229</v>
       </c>
@@ -4258,14 +4272,14 @@
         <v>2019</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15.95">
+    <row r="97" spans="1:20" ht="15.6" hidden="1">
       <c r="A97" s="7" t="s">
         <v>231</v>
       </c>
@@ -4283,7 +4297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.95">
+    <row r="98" spans="1:20" ht="15.6" hidden="1">
       <c r="A98" s="7" t="s">
         <v>233</v>
       </c>
@@ -4301,7 +4315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.95">
+    <row r="99" spans="1:20" ht="15.6" hidden="1">
       <c r="A99" s="7" t="s">
         <v>235</v>
       </c>
@@ -4312,14 +4326,14 @@
         <v>2019</v>
       </c>
       <c r="E99" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S99" s="6"/>
       <c r="T99" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15.95">
+    <row r="100" spans="1:20" ht="15.6">
       <c r="A100" s="7" t="s">
         <v>237</v>
       </c>
@@ -4330,14 +4344,14 @@
         <v>2019</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.95">
+    <row r="101" spans="1:20" ht="15.6" hidden="1">
       <c r="A101" s="7" t="s">
         <v>239</v>
       </c>
@@ -4348,14 +4362,14 @@
         <v>2019</v>
       </c>
       <c r="E101" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.95">
+    <row r="102" spans="1:20" ht="15.6" hidden="1">
       <c r="A102" s="7" t="s">
         <v>241</v>
       </c>
@@ -4373,7 +4387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15.95">
+    <row r="103" spans="1:20" ht="15.6" hidden="1">
       <c r="A103" s="7" t="s">
         <v>243</v>
       </c>
@@ -4391,7 +4405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.95">
+    <row r="104" spans="1:20" ht="15.6" hidden="1">
       <c r="A104" s="7" t="s">
         <v>245</v>
       </c>
@@ -4409,7 +4423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15.95">
+    <row r="105" spans="1:20" ht="15.6" hidden="1">
       <c r="A105" s="7" t="s">
         <v>247</v>
       </c>
@@ -4427,7 +4441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15.95">
+    <row r="106" spans="1:20" ht="15.6" hidden="1">
       <c r="A106" s="7" t="s">
         <v>249</v>
       </c>
@@ -4445,7 +4459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15.95">
+    <row r="107" spans="1:20" ht="15.6">
       <c r="A107" s="7" t="s">
         <v>251</v>
       </c>
@@ -4456,14 +4470,14 @@
         <v>2019</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S107" s="6"/>
       <c r="T107" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15.95">
+    <row r="108" spans="1:20" ht="15.6">
       <c r="A108" s="7" t="s">
         <v>253</v>
       </c>
@@ -4474,14 +4488,14 @@
         <v>2019</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S108" s="6"/>
       <c r="T108" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15.95">
+    <row r="109" spans="1:20" ht="15.6" hidden="1">
       <c r="A109" s="7" t="s">
         <v>255</v>
       </c>
@@ -4499,7 +4513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15.95">
+    <row r="110" spans="1:20" ht="15.6" hidden="1">
       <c r="A110" s="7" t="s">
         <v>257</v>
       </c>
@@ -4517,7 +4531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15.95">
+    <row r="111" spans="1:20" ht="15.6" hidden="1">
       <c r="A111" s="7" t="s">
         <v>259</v>
       </c>
@@ -4535,7 +4549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15.95">
+    <row r="112" spans="1:20" ht="15.6" hidden="1">
       <c r="A112" s="7" t="s">
         <v>261</v>
       </c>
@@ -4553,7 +4567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15.95">
+    <row r="113" spans="1:20" ht="15.6" hidden="1">
       <c r="A113" s="7" t="s">
         <v>263</v>
       </c>
@@ -4571,7 +4585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15.95">
+    <row r="114" spans="1:20" ht="15.6" hidden="1">
       <c r="A114" s="7" t="s">
         <v>265</v>
       </c>
@@ -4589,7 +4603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15.95">
+    <row r="115" spans="1:20" ht="15.6" hidden="1">
       <c r="A115" s="7" t="s">
         <v>267</v>
       </c>
@@ -4600,14 +4614,14 @@
         <v>2019</v>
       </c>
       <c r="E115" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S115" s="6"/>
       <c r="T115" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15.95">
+    <row r="116" spans="1:20" ht="15.6" hidden="1">
       <c r="A116" s="7" t="s">
         <v>269</v>
       </c>
@@ -4625,7 +4639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15.95">
+    <row r="117" spans="1:20" ht="15.6" hidden="1">
       <c r="A117" s="7" t="s">
         <v>271</v>
       </c>
@@ -4643,7 +4657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15.95">
+    <row r="118" spans="1:20" ht="15.6" hidden="1">
       <c r="A118" s="7" t="s">
         <v>273</v>
       </c>
@@ -4661,7 +4675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15.95">
+    <row r="119" spans="1:20" ht="15.6">
       <c r="A119" s="7" t="s">
         <v>275</v>
       </c>
@@ -4672,14 +4686,14 @@
         <v>2019</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S119" s="6"/>
       <c r="T119" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15.95">
+    <row r="120" spans="1:20" ht="15.6" hidden="1">
       <c r="A120" s="7" t="s">
         <v>277</v>
       </c>
@@ -4697,7 +4711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15.95">
+    <row r="121" spans="1:20" ht="15.6" hidden="1">
       <c r="A121" s="7" t="s">
         <v>279</v>
       </c>
@@ -4715,7 +4729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15.95">
+    <row r="122" spans="1:20" ht="15.6" hidden="1">
       <c r="A122" s="7" t="s">
         <v>281</v>
       </c>
@@ -4726,14 +4740,14 @@
         <v>2019</v>
       </c>
       <c r="E122" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S122" s="6"/>
       <c r="T122" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15.95">
+    <row r="123" spans="1:20" ht="15.6" hidden="1">
       <c r="A123" s="7" t="s">
         <v>283</v>
       </c>
@@ -4744,14 +4758,14 @@
         <v>2019</v>
       </c>
       <c r="E123" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S123" s="6"/>
       <c r="T123" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15.95">
+    <row r="124" spans="1:20" ht="15.6">
       <c r="A124" s="7" t="s">
         <v>285</v>
       </c>
@@ -4762,14 +4776,14 @@
         <v>2019</v>
       </c>
       <c r="E124" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S124" s="6"/>
       <c r="T124" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15.95">
+    <row r="125" spans="1:20" ht="15.6" hidden="1">
       <c r="A125" s="7" t="s">
         <v>287</v>
       </c>
@@ -4787,7 +4801,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15.95">
+    <row r="126" spans="1:20" ht="15.6">
       <c r="A126" s="7" t="s">
         <v>289</v>
       </c>
@@ -4798,14 +4812,14 @@
         <v>2019</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S126" s="6"/>
       <c r="T126" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15.95">
+    <row r="127" spans="1:20" ht="15.6" hidden="1">
       <c r="A127" s="7" t="s">
         <v>291</v>
       </c>
@@ -4823,7 +4837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15.95">
+    <row r="128" spans="1:20" ht="15.6" hidden="1">
       <c r="A128" s="7" t="s">
         <v>293</v>
       </c>
@@ -4834,14 +4848,14 @@
         <v>2019</v>
       </c>
       <c r="E128" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S128" s="6"/>
       <c r="T128" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15.95">
+    <row r="129" spans="1:20" ht="15.6" hidden="1">
       <c r="A129" s="7" t="s">
         <v>295</v>
       </c>
@@ -4852,14 +4866,14 @@
         <v>2019</v>
       </c>
       <c r="E129" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S129" s="6"/>
       <c r="T129" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15.95">
+    <row r="130" spans="1:20" ht="15.6" hidden="1">
       <c r="A130" s="7" t="s">
         <v>297</v>
       </c>
@@ -4877,7 +4891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15.95">
+    <row r="131" spans="1:20" ht="15.6" hidden="1">
       <c r="A131" s="7" t="s">
         <v>299</v>
       </c>
@@ -4888,14 +4902,14 @@
         <v>2019</v>
       </c>
       <c r="E131" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S131" s="6"/>
       <c r="T131" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15.95">
+    <row r="132" spans="1:20" ht="15.6" hidden="1">
       <c r="A132" s="7" t="s">
         <v>301</v>
       </c>
@@ -4906,14 +4920,14 @@
         <v>2019</v>
       </c>
       <c r="E132" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S132" s="6"/>
       <c r="T132" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15.95">
+    <row r="133" spans="1:20" ht="15.6" hidden="1">
       <c r="A133" s="7" t="s">
         <v>303</v>
       </c>
@@ -4924,14 +4938,14 @@
         <v>2019</v>
       </c>
       <c r="E133" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S133" s="6"/>
       <c r="T133" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15.95">
+    <row r="134" spans="1:20" ht="15.6" hidden="1">
       <c r="A134" s="7" t="s">
         <v>305</v>
       </c>
@@ -4942,14 +4956,14 @@
         <v>2019</v>
       </c>
       <c r="E134" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S134" s="6"/>
       <c r="T134" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="15.95">
+    <row r="135" spans="1:20" ht="15.6" hidden="1">
       <c r="A135" s="7" t="s">
         <v>307</v>
       </c>
@@ -4967,7 +4981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15.95">
+    <row r="136" spans="1:20" ht="15.6" hidden="1">
       <c r="A136" s="7" t="s">
         <v>309</v>
       </c>
@@ -4985,7 +4999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15.95">
+    <row r="137" spans="1:20" ht="15.6" hidden="1">
       <c r="A137" s="7" t="s">
         <v>311</v>
       </c>
@@ -4996,14 +5010,14 @@
         <v>2019</v>
       </c>
       <c r="E137" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S137" s="6"/>
       <c r="T137" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15.95">
+    <row r="138" spans="1:20" ht="15.6" hidden="1">
       <c r="A138" s="7" t="s">
         <v>313</v>
       </c>
@@ -5014,14 +5028,14 @@
         <v>2019</v>
       </c>
       <c r="E138" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S138" s="6"/>
       <c r="T138" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="15.95">
+    <row r="139" spans="1:20" ht="15.6" hidden="1">
       <c r="A139" s="7" t="s">
         <v>315</v>
       </c>
@@ -5032,14 +5046,14 @@
         <v>2019</v>
       </c>
       <c r="E139" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S139" s="6"/>
       <c r="T139" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15.95">
+    <row r="140" spans="1:20" ht="15.6" hidden="1">
       <c r="A140" s="7" t="s">
         <v>317</v>
       </c>
@@ -5050,14 +5064,14 @@
         <v>2019</v>
       </c>
       <c r="E140" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S140" s="6"/>
       <c r="T140" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15.95">
+    <row r="141" spans="1:20" ht="15.6" hidden="1">
       <c r="A141" s="7" t="s">
         <v>319</v>
       </c>
@@ -5068,14 +5082,14 @@
         <v>2019</v>
       </c>
       <c r="E141" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S141" s="6"/>
       <c r="T141" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15.95">
+    <row r="142" spans="1:20" ht="15.6" hidden="1">
       <c r="A142" s="7" t="s">
         <v>321</v>
       </c>
@@ -5093,7 +5107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="15.95">
+    <row r="143" spans="1:20" ht="15.6" hidden="1">
       <c r="A143" s="7" t="s">
         <v>323</v>
       </c>
@@ -5111,7 +5125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15.95">
+    <row r="144" spans="1:20" ht="15.6" hidden="1">
       <c r="A144" s="7" t="s">
         <v>325</v>
       </c>
@@ -5129,7 +5143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15.95">
+    <row r="145" spans="1:20" ht="15.6" hidden="1">
       <c r="A145" s="7" t="s">
         <v>327</v>
       </c>
@@ -5147,7 +5161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15.95">
+    <row r="146" spans="1:20" ht="15.6">
       <c r="A146" s="7" t="s">
         <v>329</v>
       </c>
@@ -5158,14 +5172,14 @@
         <v>2019</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S146" s="6"/>
       <c r="T146" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="15.95">
+    <row r="147" spans="1:20" ht="15.6">
       <c r="A147" s="7" t="s">
         <v>331</v>
       </c>
@@ -5176,14 +5190,14 @@
         <v>2019</v>
       </c>
       <c r="E147" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S147" s="6"/>
       <c r="T147" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15.95">
+    <row r="148" spans="1:20" ht="15.6" hidden="1">
       <c r="A148" s="7" t="s">
         <v>333</v>
       </c>
@@ -5201,7 +5215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15.95">
+    <row r="149" spans="1:20" ht="15.6" hidden="1">
       <c r="A149" s="7" t="s">
         <v>335</v>
       </c>
@@ -5219,7 +5233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15.95">
+    <row r="150" spans="1:20" ht="15.6" hidden="1">
       <c r="A150" s="7" t="s">
         <v>337</v>
       </c>
@@ -5237,7 +5251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15.95">
+    <row r="151" spans="1:20" ht="15.6" hidden="1">
       <c r="A151" s="7" t="s">
         <v>339</v>
       </c>
@@ -5255,7 +5269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15.95">
+    <row r="152" spans="1:20" ht="15.6" hidden="1">
       <c r="A152" s="7" t="s">
         <v>341</v>
       </c>
@@ -5273,7 +5287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="15.95">
+    <row r="153" spans="1:20" ht="15.6" hidden="1">
       <c r="A153" s="7" t="s">
         <v>343</v>
       </c>
@@ -5291,7 +5305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="15.95">
+    <row r="154" spans="1:20" ht="15.6" hidden="1">
       <c r="A154" s="7" t="s">
         <v>345</v>
       </c>
@@ -5302,14 +5316,14 @@
         <v>2019</v>
       </c>
       <c r="E154" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S154" s="6"/>
       <c r="T154" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="15.95">
+    <row r="155" spans="1:20" ht="15.6" hidden="1">
       <c r="A155" s="7" t="s">
         <v>347</v>
       </c>
@@ -5327,7 +5341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="15.95">
+    <row r="156" spans="1:20" ht="15.6" hidden="1">
       <c r="A156" s="7" t="s">
         <v>349</v>
       </c>
@@ -5345,7 +5359,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="15.95">
+    <row r="157" spans="1:20" ht="15.6" hidden="1">
       <c r="A157" s="7" t="s">
         <v>351</v>
       </c>
@@ -5363,7 +5377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="15.95">
+    <row r="158" spans="1:20" ht="15.6" hidden="1">
       <c r="A158" s="7" t="s">
         <v>353</v>
       </c>
@@ -5374,14 +5388,14 @@
         <v>2019</v>
       </c>
       <c r="E158" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S158" s="6"/>
       <c r="T158" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="15.95">
+    <row r="159" spans="1:20" ht="15.6" hidden="1">
       <c r="A159" s="7" t="s">
         <v>355</v>
       </c>
@@ -5392,14 +5406,14 @@
         <v>2019</v>
       </c>
       <c r="E159" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S159" s="6"/>
       <c r="T159" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="15.95">
+    <row r="160" spans="1:20" ht="15.6" hidden="1">
       <c r="A160" s="7" t="s">
         <v>357</v>
       </c>
@@ -5417,7 +5431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="15.95">
+    <row r="161" spans="1:20" ht="15.6" hidden="1">
       <c r="A161" s="7" t="s">
         <v>359</v>
       </c>
@@ -5435,7 +5449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="15.95">
+    <row r="162" spans="1:20" ht="15.6" hidden="1">
       <c r="A162" s="7" t="s">
         <v>361</v>
       </c>
@@ -5453,7 +5467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="15.95">
+    <row r="163" spans="1:20" ht="15.6" hidden="1">
       <c r="A163" s="7" t="s">
         <v>363</v>
       </c>
@@ -5471,7 +5485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15.95">
+    <row r="164" spans="1:20" ht="15.6" hidden="1">
       <c r="A164" s="7" t="s">
         <v>365</v>
       </c>
@@ -5482,14 +5496,14 @@
         <v>2019</v>
       </c>
       <c r="E164" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S164" s="6"/>
       <c r="T164" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15.95">
+    <row r="165" spans="1:20" ht="15.6" hidden="1">
       <c r="A165" s="7" t="s">
         <v>367</v>
       </c>
@@ -5500,14 +5514,14 @@
         <v>2019</v>
       </c>
       <c r="E165" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S165" s="6"/>
       <c r="T165" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="15.95">
+    <row r="166" spans="1:20" ht="15.6" hidden="1">
       <c r="A166" s="7" t="s">
         <v>369</v>
       </c>
@@ -5525,7 +5539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="15.95">
+    <row r="167" spans="1:20" ht="15.6" hidden="1">
       <c r="A167" s="7" t="s">
         <v>371</v>
       </c>
@@ -5536,14 +5550,14 @@
         <v>2019</v>
       </c>
       <c r="E167" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S167" s="6"/>
       <c r="T167" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15.95">
+    <row r="168" spans="1:20" ht="15.6" hidden="1">
       <c r="A168" s="7" t="s">
         <v>373</v>
       </c>
@@ -5554,14 +5568,14 @@
         <v>2019</v>
       </c>
       <c r="E168" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S168" s="6"/>
       <c r="T168" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15.95">
+    <row r="169" spans="1:20" ht="15.6" hidden="1">
       <c r="A169" s="7" t="s">
         <v>375</v>
       </c>
@@ -5572,14 +5586,14 @@
         <v>2019</v>
       </c>
       <c r="E169" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S169" s="6"/>
       <c r="T169" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="15.95">
+    <row r="170" spans="1:20" ht="15.6">
       <c r="A170" s="7" t="s">
         <v>377</v>
       </c>
@@ -5590,14 +5604,14 @@
         <v>2019</v>
       </c>
       <c r="E170" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S170" s="6"/>
       <c r="T170" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="15.95">
+    <row r="171" spans="1:20" ht="15.6" hidden="1">
       <c r="A171" s="7" t="s">
         <v>379</v>
       </c>
@@ -5615,7 +5629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="15.95">
+    <row r="172" spans="1:20" ht="15.6" hidden="1">
       <c r="A172" s="7" t="s">
         <v>381</v>
       </c>
@@ -5626,14 +5640,14 @@
         <v>2019</v>
       </c>
       <c r="E172" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S172" s="6"/>
       <c r="T172" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="15.95">
+    <row r="173" spans="1:20" ht="15.6" hidden="1">
       <c r="A173" s="7" t="s">
         <v>383</v>
       </c>
@@ -5651,7 +5665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="15.95">
+    <row r="174" spans="1:20" ht="15.6" hidden="1">
       <c r="A174" s="7" t="s">
         <v>385</v>
       </c>
@@ -5662,14 +5676,14 @@
         <v>2019</v>
       </c>
       <c r="E174" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S174" s="6"/>
       <c r="T174" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="15.95">
+    <row r="175" spans="1:20" ht="15.6">
       <c r="A175" s="7" t="s">
         <v>387</v>
       </c>
@@ -5680,14 +5694,14 @@
         <v>2019</v>
       </c>
       <c r="E175" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S175" s="6"/>
       <c r="T175" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="15.95">
+    <row r="176" spans="1:20" ht="15.6" hidden="1">
       <c r="A176" s="7" t="s">
         <v>389</v>
       </c>
@@ -5698,14 +5712,14 @@
         <v>2019</v>
       </c>
       <c r="E176" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S176" s="6"/>
       <c r="T176" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="15.95">
+    <row r="177" spans="1:20" ht="15.6" hidden="1">
       <c r="A177" s="7" t="s">
         <v>391</v>
       </c>
@@ -5723,7 +5737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="15.95">
+    <row r="178" spans="1:20" ht="15.6" hidden="1">
       <c r="A178" s="7" t="s">
         <v>393</v>
       </c>
@@ -5741,7 +5755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="15.95">
+    <row r="179" spans="1:20" ht="15.6" hidden="1">
       <c r="A179" s="7" t="s">
         <v>395</v>
       </c>
@@ -5759,7 +5773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="15.95">
+    <row r="180" spans="1:20" ht="15.6" hidden="1">
       <c r="A180" s="7" t="s">
         <v>397</v>
       </c>
@@ -5777,7 +5791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="15.95">
+    <row r="181" spans="1:20" ht="15.6">
       <c r="A181" s="7" t="s">
         <v>399</v>
       </c>
@@ -5788,14 +5802,14 @@
         <v>2019</v>
       </c>
       <c r="E181" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="S181" s="6"/>
       <c r="T181" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="15.95">
+    <row r="182" spans="1:20" ht="15.6" hidden="1">
       <c r="A182" s="7" t="s">
         <v>401</v>
       </c>
@@ -5806,14 +5820,14 @@
         <v>2019</v>
       </c>
       <c r="E182" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S182" s="6"/>
       <c r="T182" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="15.95">
+    <row r="183" spans="1:20" ht="15.6" hidden="1">
       <c r="A183" s="7" t="s">
         <v>403</v>
       </c>
@@ -5831,7 +5845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="15.95">
+    <row r="184" spans="1:20" ht="15.6" hidden="1">
       <c r="A184" s="7" t="s">
         <v>405</v>
       </c>
@@ -5842,14 +5856,14 @@
         <v>2019</v>
       </c>
       <c r="E184" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S184" s="6"/>
       <c r="T184" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="15.95">
+    <row r="185" spans="1:20" ht="15.6" hidden="1">
       <c r="A185" s="7" t="s">
         <v>407</v>
       </c>
@@ -5867,7 +5881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="15.95">
+    <row r="186" spans="1:20" ht="15.6" hidden="1">
       <c r="A186" s="7" t="s">
         <v>409</v>
       </c>
@@ -5885,7 +5899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="15.95">
+    <row r="187" spans="1:20" ht="15.6" hidden="1">
       <c r="A187" s="7" t="s">
         <v>411</v>
       </c>
@@ -5903,7 +5917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="15.95">
+    <row r="188" spans="1:20" ht="15.6" hidden="1">
       <c r="A188" s="7" t="s">
         <v>413</v>
       </c>
@@ -5914,14 +5928,14 @@
         <v>2019</v>
       </c>
       <c r="E188" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S188" s="6"/>
       <c r="T188" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="15.95">
+    <row r="189" spans="1:20" ht="15.6" hidden="1">
       <c r="A189" s="7" t="s">
         <v>415</v>
       </c>
@@ -5932,14 +5946,14 @@
         <v>2019</v>
       </c>
       <c r="E189" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S189" s="6"/>
       <c r="T189" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="15.95">
+    <row r="190" spans="1:20" ht="15.6" hidden="1">
       <c r="A190" s="7" t="s">
         <v>417</v>
       </c>
@@ -5950,14 +5964,14 @@
         <v>2019</v>
       </c>
       <c r="E190" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S190" s="6"/>
       <c r="T190" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="15.95">
+    <row r="191" spans="1:20" ht="15.6" hidden="1">
       <c r="A191" s="7" t="s">
         <v>419</v>
       </c>
@@ -5975,7 +5989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="15.95">
+    <row r="192" spans="1:20" ht="15.6" hidden="1">
       <c r="A192" s="7" t="s">
         <v>421</v>
       </c>
@@ -5986,14 +6000,14 @@
         <v>2019</v>
       </c>
       <c r="E192" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="S192" s="6"/>
       <c r="T192" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="15.95">
+    <row r="193" spans="1:20" ht="15.6" hidden="1">
       <c r="A193" s="7" t="s">
         <v>423</v>
       </c>
@@ -6004,14 +6018,14 @@
         <v>2019</v>
       </c>
       <c r="E193" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S193" s="6"/>
       <c r="T193" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="15.95">
+    <row r="194" spans="1:20" ht="15.6" hidden="1">
       <c r="A194" s="7" t="s">
         <v>425</v>
       </c>
@@ -6022,14 +6036,14 @@
         <v>2019</v>
       </c>
       <c r="E194" t="s">
-        <v>67</v>
+        <v>574</v>
       </c>
       <c r="S194" s="6"/>
       <c r="T194" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="15.95">
+    <row r="195" spans="1:20" ht="15.6" hidden="1">
       <c r="A195" s="7" t="s">
         <v>427</v>
       </c>
@@ -6040,14 +6054,14 @@
         <v>2019</v>
       </c>
       <c r="E195" t="s">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="S195" s="6"/>
       <c r="T195" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="15.95">
+    <row r="196" spans="1:20" ht="15.6">
       <c r="A196" s="7" t="s">
         <v>429</v>
       </c>
@@ -6058,13 +6072,20 @@
         <v>2019</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
       <c r="T196" s="15" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ196" xr:uid="{A62150BA-67A9-44C3-B19F-D6F173D0969F}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Countries with national laws that reflect limited progress in addressing indigenous land tenure:"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6078,21 +6099,21 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="89.140625" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="89.109375" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -13668,11 +13689,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14167,19 +14188,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6C7E77-FF0A-E84A-99FE-DC85AB833D10}">
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="40" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="78.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="14"/>
+    <col min="3" max="3" width="21.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="78.44140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>570</v>
@@ -14188,7 +14209,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84">
+    <row r="2" spans="1:6" ht="71.400000000000006">
       <c r="B2" s="24" t="s">
         <v>572</v>
       </c>
@@ -14197,7 +14218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="55.2">
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
@@ -17158,13 +17179,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>